--- a/Titus/Gurobi code/Final/Input/J-Zaterdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/J-Zaterdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E98B05-FB46-4A1F-905E-E83A0603177C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35491820-A431-4082-B4DB-F52D416AE7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="6" r:id="rId1"/>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6256.4467229276761</v>
+        <v>6257</v>
       </c>
       <c r="C1">
-        <v>4883.0803691142837</v>
+        <v>4884</v>
       </c>
       <c r="D1">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7095.7261613691944</v>
+        <v>7096</v>
       </c>
       <c r="C2">
-        <v>5417.1672844861587</v>
+        <v>5418</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -533,16 +533,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7553.5149459736576</v>
+        <v>7554</v>
       </c>
       <c r="C3">
-        <v>6790.5336382995511</v>
+        <v>6791</v>
       </c>
       <c r="D3">
-        <v>4196.3971922075871</v>
+        <v>4197</v>
       </c>
       <c r="E3">
-        <v>3814.9065383705338</v>
+        <v>3815</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3967.502799905355</v>
+        <v>3968</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7095.7261613691944</v>
+        <v>7096</v>
       </c>
       <c r="C5">
-        <v>4730.484107579462</v>
+        <v>4731</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -593,16 +593,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7477.2168152062468</v>
+        <v>7478</v>
       </c>
       <c r="C6">
-        <v>6332.7448536950869</v>
+        <v>6333</v>
       </c>
       <c r="D6">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="E6">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6485.3411152299077</v>
+        <v>6486</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4577.8878460446413</v>
+        <v>4578</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6180.1485921602653</v>
+        <v>6181</v>
       </c>
       <c r="C10">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7553.5149459736576</v>
+        <v>7554</v>
       </c>
       <c r="C11">
-        <v>6103.8504613928544</v>
+        <v>6104</v>
       </c>
       <c r="D11">
-        <v>4959.3784998816946</v>
+        <v>4960</v>
       </c>
       <c r="E11">
-        <v>3357.1177537660701</v>
+        <v>3358</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5417.1672844861587</v>
+        <v>5418</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7324.6205536714251</v>
+        <v>7325</v>
       </c>
       <c r="C13">
-        <v>5188.2728921839262</v>
+        <v>5189</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5035.6766306491054</v>
+        <v>5036</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5569.7635460209794</v>
+        <v>5570</v>
       </c>
       <c r="C16">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5264.571022951337</v>
+        <v>5265</v>
       </c>
       <c r="C17">
-        <v>4501.5897152772304</v>
+        <v>4502</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4425.2915845098196</v>
+        <v>4426</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5417.1672844861587</v>
+        <v>5418</v>
       </c>
       <c r="C20">
-        <v>5188.2728921839262</v>
+        <v>5189</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6180.1485921602653</v>
+        <v>6181</v>
       </c>
       <c r="C21">
-        <v>4501.5897152772304</v>
+        <v>4502</v>
       </c>
       <c r="D21">
-        <v>4348.9934537424087</v>
+        <v>4349</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7248.3224229040143</v>
+        <v>7249</v>
       </c>
       <c r="C22">
-        <v>5340.8691537187478</v>
+        <v>5341</v>
       </c>
       <c r="D22">
-        <v>5035.6766306491054</v>
+        <v>5036</v>
       </c>
       <c r="E22">
-        <v>3128.223361463838</v>
+        <v>3129</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6027.5523306254436</v>
+        <v>6028</v>
       </c>
       <c r="C24">
-        <v>5722.3598075558011</v>
+        <v>5723</v>
       </c>
       <c r="D24">
-        <v>3967.502799905355</v>
+        <v>3968</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -973,13 +973,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5646.0616767883903</v>
+        <v>5646</v>
       </c>
       <c r="C25">
-        <v>5493.4654152535686</v>
+        <v>5494</v>
       </c>
       <c r="D25">
-        <v>5417.1672844861587</v>
+        <v>5418</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7248.3224229040143</v>
+        <v>7249</v>
       </c>
       <c r="C26">
-        <v>7172.0242921366043</v>
+        <v>7172</v>
       </c>
       <c r="D26">
-        <v>5264.571022951337</v>
+        <v>5265</v>
       </c>
       <c r="E26">
-        <v>3509.7140153008909</v>
+        <v>3510</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5493.4654152535686</v>
+        <v>5494</v>
       </c>
       <c r="C27">
-        <v>5340.8691537187478</v>
+        <v>5341</v>
       </c>
       <c r="D27">
-        <v>3814.9065383705338</v>
+        <v>3815</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3814.9065383705338</v>
+        <v>3815</v>
       </c>
       <c r="C28">
         <v>0</v>
